--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3481481481481482</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06994047619047619</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1164807930607187</v>
+        <v>0.1318681318681319</v>
       </c>
     </row>
     <row r="3">

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.3106060606060606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08035714285714286</v>
+        <v>0.06101190476190476</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.1019900497512438</v>
       </c>
     </row>
     <row r="3">

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3106060606060606</v>
+        <v>0.352112676056338</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06101190476190476</v>
+        <v>0.0744047619047619</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1019900497512438</v>
+        <v>0.1228501228501228</v>
       </c>
     </row>
     <row r="3">

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.352112676056338</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0744047619047619</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1228501228501228</v>
+        <v>0.09701492537313433</v>
       </c>
     </row>
     <row r="3">

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2954545454545455</v>
+        <v>0.2171428571428571</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05803571428571429</v>
+        <v>0.06280991735537191</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09701492537313433</v>
+        <v>0.09743589743589744</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0625</v>
+        <v>0.03305785123966942</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1068702290076336</v>
+        <v>0.05486968449931413</v>
       </c>
     </row>
   </sheetData>

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2171428571428571</v>
+        <v>0.1396648044692737</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06280991735537191</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09743589743589744</v>
+        <v>0.06377551020408163</v>
       </c>
     </row>
     <row r="3">

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1396648044692737</v>
+        <v>0.7717059253701152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04132231404958678</v>
+        <v>0.8370197904540163</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06377551020408163</v>
+        <v>0.7956615670512543</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.7582998569285202</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03305785123966942</v>
+        <v>0.8358556461001164</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05486968449931413</v>
+        <v>0.7894940868287927</v>
       </c>
     </row>
   </sheetData>

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7717059253701152</v>
+        <v>0.7656383347885306</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8370197904540163</v>
+        <v>0.8344586728754365</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7956615670512543</v>
+        <v>0.7922931378536642</v>
       </c>
     </row>
     <row r="3">

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7656383347885306</v>
+        <v>0.7643809686466341</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8344586728754365</v>
+        <v>0.8318975552968568</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7922931378536642</v>
+        <v>0.7911235431982051</v>
       </c>
     </row>
     <row r="3">

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7643809686466341</v>
+        <v>0.761053571981998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8318975552968568</v>
+        <v>0.8330616996507567</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7911235431982051</v>
+        <v>0.7899010215556109</v>
       </c>
     </row>
     <row r="3">

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.761053571981998</v>
+        <v>0.7579026686889148</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8330616996507567</v>
+        <v>0.7152502910360885</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7899010215556109</v>
+        <v>0.7349367411862646</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7582998569285202</v>
+        <v>0.7575289294155975</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8358556461001164</v>
+        <v>0.6745052386495926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7894940868287927</v>
+        <v>0.7100960461577309</v>
       </c>
     </row>
   </sheetData>

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>F1-Score</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Macro F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,19 +467,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7579026686889148</v>
+        <v>0.7589023310417855</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7152502910360885</v>
+        <v>0.7180442374854482</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7349367411862646</v>
+        <v>0.7369419147848194</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4989854475662059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5021814598311271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>LGBM</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -480,6 +496,12 @@
       </c>
       <c r="D3" t="n">
         <v>0.7100960461577309</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4887298341363462</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4989529440748953</v>
       </c>
     </row>
   </sheetData>

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7589023310417855</v>
+        <v>0.7613898750257053</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7180442374854482</v>
+        <v>0.7173457508731083</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7369419147848194</v>
+        <v>0.7375309023440424</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4989854475662059</v>
+        <v>0.5034286756980586</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5021814598311271</v>
+        <v>0.5079934600998902</v>
       </c>
     </row>
     <row r="3">

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,53 +433,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>F1-Score</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Macro F1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Random Forest</t>
         </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.7613898750257053</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7173457508731083</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7375309023440424</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5034286756980586</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.5079934600998902</v>
       </c>
     </row>
     <row r="3">
@@ -488,21 +446,6 @@
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.7575289294155975</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6745052386495926</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7100960461577309</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.4887298341363462</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4989529440748953</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,11 +433,53 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Macro F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Random Forest</t>
         </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7615684914393588</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7192083818393481</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7386798711837065</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5040332124831384</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5083865260140203</v>
       </c>
     </row>
     <row r="3">
@@ -445,6 +487,21 @@
         <is>
           <t>XGBoost</t>
         </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7571000525996188</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.669150174621653</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7065374003626401</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4868429405322688</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4979092476875182</v>
       </c>
     </row>
   </sheetData>

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7615684914393588</v>
+        <v>0.7608032486315411</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7192083818393481</v>
+        <v>0.3892898719441211</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7386798711837065</v>
+        <v>0.4557107039265479</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5040332124831384</v>
+        <v>0.3632847830127965</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5083865260140203</v>
+        <v>0.5043181258258864</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7571000525996188</v>
+        <v>0.762939603438102</v>
       </c>
       <c r="C3" t="n">
-        <v>0.669150174621653</v>
+        <v>0.3289871944121071</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7065374003626401</v>
+        <v>0.3768861957764048</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4868429405322688</v>
+        <v>0.3196559791966765</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4979092476875182</v>
+        <v>0.5058433559542206</v>
       </c>
     </row>
   </sheetData>

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7608032486315411</v>
+        <v>0.7629912095117986</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3892898719441211</v>
+        <v>0.390221187427241</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4557107039265479</v>
+        <v>0.4563283299716034</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3632847830127965</v>
+        <v>0.3645045862753594</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5043181258258864</v>
+        <v>0.5076239109498533</v>
       </c>
     </row>
     <row r="3">

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7629912095117986</v>
+        <v>0.6581702923206707</v>
       </c>
       <c r="C2" t="n">
-        <v>0.390221187427241</v>
+        <v>0.6212067407024794</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4563283299716034</v>
+        <v>0.5653393028270504</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3645045862753594</v>
+        <v>0.5447034468310037</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5076239109498533</v>
+        <v>0.5830104085828915</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.762939603438102</v>
+        <v>0.7002533059314885</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3289871944121071</v>
+        <v>0.6271306818181818</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3768861957764048</v>
+        <v>0.5584794599183689</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3196559791966765</v>
+        <v>0.5356977105717107</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5058433559542206</v>
+        <v>0.5852187050141453</v>
       </c>
     </row>
   </sheetData>

--- a/statistiche/performanceMetrics.xlsx
+++ b/statistiche/performanceMetrics.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6581702923206707</v>
+        <v>0.65731128302354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6212067407024794</v>
+        <v>0.62083548553719</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5653393028270504</v>
+        <v>0.5650170448818352</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5447034468310037</v>
+        <v>0.5443803696611325</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5830104085828915</v>
+        <v>0.5826652748739672</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7002533059314885</v>
+        <v>0.6999120224088159</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6271306818181818</v>
+        <v>0.6270338326446281</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5584794599183689</v>
+        <v>0.5584070661857332</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5356977105717107</v>
+        <v>0.5356268107949874</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5852187050141453</v>
+        <v>0.5851314982469</v>
       </c>
     </row>
   </sheetData>
